--- a/net/sta/23-lindenhorst.xlsx
+++ b/net/sta/23-lindenhorst.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912CCD93-BDDC-4AC9-B388-9B9D8A47A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230D208-DCD1-4606-BB5C-09BFC31D026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rechnung goniom. Koord." sheetId="2" r:id="rId1"/>
@@ -416,6 +416,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,6 +424,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,9 +1047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T158" sqref="T158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -3853,8 +3855,8 @@
       <c r="AD146" t="s">
         <v>20</v>
       </c>
-      <c r="AE146">
-        <v>490.5</v>
+      <c r="AE146" s="3">
+        <v>940.5</v>
       </c>
     </row>
     <row r="147" spans="2:31" x14ac:dyDescent="0.45">
